--- a/Senior Centers MySidewalk Profiles/Update Log.xlsx
+++ b/Senior Centers MySidewalk Profiles/Update Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmccall\Documents\GIT\Aging-and-Disability\Senior Centers MySidewalk Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68CEC620-7DA7-419C-9478-19A6B2759B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED97233-9F6B-46B6-A0C7-9451C14CBAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{940324B9-2625-4B70-BB57-73308F3561E9}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
   <si>
     <t>Center</t>
   </si>
@@ -46,12 +47,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Veteran Data</t>
-  </si>
-  <si>
-    <t>Foreign Born Data</t>
-  </si>
-  <si>
     <t>Main Update</t>
   </si>
   <si>
@@ -188,16 +183,195 @@
   </si>
   <si>
     <t>206 North Church Street, Waverly, TN 37185</t>
+  </si>
+  <si>
+    <t>Cheatham</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>Williamson</t>
+  </si>
+  <si>
+    <t>Sumner</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Rutherford</t>
+  </si>
+  <si>
+    <t>Ajax Turner Center</t>
+  </si>
+  <si>
+    <t>Ashland City Senior Center</t>
+  </si>
+  <si>
+    <t>Dickson Senior Center</t>
+  </si>
+  <si>
+    <t>FiftyForward Knowles Senior Center</t>
+  </si>
+  <si>
+    <t>Stewart County Senior Center</t>
+  </si>
+  <si>
+    <t>Center 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>Center Half Mile Radius</t>
+  </si>
+  <si>
+    <t>St. Clair Senior Center</t>
+  </si>
+  <si>
+    <t>Trousdale/Hartsville Senior Center</t>
+  </si>
+  <si>
+    <t>Ajax Turner 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>FiftyForward Knowles 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>Ashland City Senior Center 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>Byrum-Porter 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>Dickson Senior Center 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>FiftyForward College Grove 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>FiftyForward Donelson 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>J.D. Lewis 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>Gallatin Senior Center 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>LaVergne Senior Center 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>Mt. Juliet Senior Center 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>Robertson County Senior Center 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>Stewart County Senior Center 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>Trousdale/Hartsville Senior Center 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>Senior Citizens of Hendersonville 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>Torrey Johnson 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>St. Clair 5 Mile Radius</t>
+  </si>
+  <si>
+    <t>Foreign Born Data Demographics</t>
+  </si>
+  <si>
+    <t>Veteran Data Senior Demographics</t>
+  </si>
+  <si>
+    <t>Done w links</t>
+  </si>
+  <si>
+    <t>10m map</t>
+  </si>
+  <si>
+    <t>no map</t>
+  </si>
+  <si>
+    <t>5m map</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>9-12</t>
+  </si>
+  <si>
+    <t>13-16</t>
+  </si>
+  <si>
+    <t>17-20</t>
+  </si>
+  <si>
+    <t>21-24</t>
+  </si>
+  <si>
+    <t>25-28</t>
+  </si>
+  <si>
+    <t>29-32</t>
+  </si>
+  <si>
+    <t>33-36</t>
+  </si>
+  <si>
+    <t>37-40</t>
+  </si>
+  <si>
+    <t>41-44</t>
+  </si>
+  <si>
+    <t>45-48</t>
+  </si>
+  <si>
+    <t>49-52</t>
+  </si>
+  <si>
+    <t>53-56</t>
+  </si>
+  <si>
+    <t>57-60</t>
+  </si>
+  <si>
+    <t>61-64</t>
+  </si>
+  <si>
+    <t>65-68</t>
+  </si>
+  <si>
+    <t>pop density not showing up</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/89727cd83b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,13 +394,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -539,230 +718,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39292D16-EDB9-4CBC-AA7B-5D5D8FA2B9FD}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" t="s">
+        <v>85</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O16" r:id="rId1" xr:uid="{3C51300E-85D2-40F7-A07F-40C478F5519B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Senior Centers MySidewalk Profiles/Update Log.xlsx
+++ b/Senior Centers MySidewalk Profiles/Update Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmccall\Documents\GIT\Aging-and-Disability\Senior Centers MySidewalk Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED97233-9F6B-46B6-A0C7-9451C14CBAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1954DC-725C-4C29-875C-50F239B725DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{940324B9-2625-4B70-BB57-73308F3561E9}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="126">
   <si>
     <t>Center</t>
   </si>
@@ -350,10 +349,70 @@
     <t>65-68</t>
   </si>
   <si>
-    <t>pop density not showing up</t>
-  </si>
-  <si>
     <t>https://reports.mysidewalk.com/89727cd83b</t>
+  </si>
+  <si>
+    <t>Sharing Link</t>
+  </si>
+  <si>
+    <t>Map Notes</t>
+  </si>
+  <si>
+    <t>some maps small pop</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/9c98ac8d7f</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/d56badf939</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/182f8c30d9</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/d7c6c60790</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/25e533510f</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/aa88bfc635</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/d9dc823ab0</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/62c6ab6c49</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/402a7f85c8</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/abe29aba06</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/6d3597601c</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/12f00466ee</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/de97ba31bb</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/ab9b517d33</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/6029acb213</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/1f9c415316</t>
+  </si>
+  <si>
+    <t>ajax</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -721,22 +780,25 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="44.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -773,6 +835,15 @@
       <c r="L1" t="s">
         <v>6</v>
       </c>
+      <c r="M1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -814,6 +885,9 @@
       <c r="M2" t="s">
         <v>86</v>
       </c>
+      <c r="N2" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -834,6 +908,12 @@
       <c r="F3" t="s">
         <v>66</v>
       </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
       <c r="I3" t="s">
         <v>83</v>
       </c>
@@ -848,6 +928,12 @@
       </c>
       <c r="M3" t="s">
         <v>86</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -869,6 +955,12 @@
       <c r="F4" t="s">
         <v>67</v>
       </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
       <c r="I4" t="s">
         <v>83</v>
       </c>
@@ -883,6 +975,12 @@
       </c>
       <c r="M4" t="s">
         <v>85</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -904,6 +1002,12 @@
       <c r="F5" t="s">
         <v>68</v>
       </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
       <c r="I5" t="s">
         <v>83</v>
       </c>
@@ -918,6 +1022,12 @@
       </c>
       <c r="M5" t="s">
         <v>86</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -939,6 +1049,12 @@
       <c r="F6" t="s">
         <v>69</v>
       </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
       <c r="I6" t="s">
         <v>83</v>
       </c>
@@ -953,6 +1069,12 @@
       </c>
       <c r="M6" t="s">
         <v>84</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -974,6 +1096,12 @@
       <c r="F7" t="s">
         <v>70</v>
       </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
       <c r="I7" t="s">
         <v>83</v>
       </c>
@@ -988,6 +1116,12 @@
       </c>
       <c r="M7" t="s">
         <v>86</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1009,6 +1143,12 @@
       <c r="F8" t="s">
         <v>65</v>
       </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
       <c r="I8" t="s">
         <v>83</v>
       </c>
@@ -1023,6 +1163,12 @@
       </c>
       <c r="M8" t="s">
         <v>86</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="O8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1044,6 +1190,12 @@
       <c r="F9" t="s">
         <v>72</v>
       </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
       <c r="I9" t="s">
         <v>83</v>
       </c>
@@ -1055,6 +1207,15 @@
       </c>
       <c r="L9" t="s">
         <v>83</v>
+      </c>
+      <c r="M9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1076,6 +1237,12 @@
       <c r="F10" t="s">
         <v>78</v>
       </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
       <c r="I10" t="s">
         <v>83</v>
       </c>
@@ -1088,8 +1255,14 @@
       <c r="L10" t="s">
         <v>83</v>
       </c>
-      <c r="N10" t="s">
-        <v>104</v>
+      <c r="M10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1111,6 +1284,12 @@
       <c r="F11" t="s">
         <v>71</v>
       </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
       <c r="I11" t="s">
         <v>83</v>
       </c>
@@ -1123,8 +1302,14 @@
       <c r="L11" t="s">
         <v>83</v>
       </c>
-      <c r="N11" t="s">
-        <v>104</v>
+      <c r="M11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1146,6 +1331,12 @@
       <c r="F12" t="s">
         <v>73</v>
       </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
       <c r="I12" t="s">
         <v>83</v>
       </c>
@@ -1157,6 +1348,15 @@
       </c>
       <c r="L12" t="s">
         <v>83</v>
+      </c>
+      <c r="M12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1178,6 +1378,12 @@
       <c r="F13" t="s">
         <v>74</v>
       </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
       <c r="I13" t="s">
         <v>83</v>
       </c>
@@ -1189,6 +1395,15 @@
       </c>
       <c r="L13" t="s">
         <v>83</v>
+      </c>
+      <c r="M13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1210,6 +1425,12 @@
       <c r="F14" t="s">
         <v>75</v>
       </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
       <c r="I14" t="s">
         <v>83</v>
       </c>
@@ -1221,6 +1442,15 @@
       </c>
       <c r="L14" t="s">
         <v>83</v>
+      </c>
+      <c r="M14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1242,6 +1472,12 @@
       <c r="F15" t="s">
         <v>80</v>
       </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
       <c r="I15" t="s">
         <v>83</v>
       </c>
@@ -1253,6 +1489,15 @@
       </c>
       <c r="L15" t="s">
         <v>83</v>
+      </c>
+      <c r="M15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1274,6 +1519,12 @@
       <c r="F16" t="s">
         <v>76</v>
       </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
       <c r="I16" t="s">
         <v>83</v>
       </c>
@@ -1287,13 +1538,16 @@
         <v>83</v>
       </c>
       <c r="M16" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>102</v>
       </c>
@@ -1312,6 +1566,12 @@
       <c r="F17" t="s">
         <v>77</v>
       </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
       <c r="I17" t="s">
         <v>83</v>
       </c>
@@ -1324,8 +1584,17 @@
       <c r="L17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>103</v>
       </c>
@@ -1344,6 +1613,12 @@
       <c r="F18" t="s">
         <v>79</v>
       </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
       <c r="I18" t="s">
         <v>83</v>
       </c>
@@ -1355,11 +1630,36 @@
       </c>
       <c r="L18" t="s">
         <v>83</v>
+      </c>
+      <c r="M18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O18" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O16" r:id="rId1" xr:uid="{3C51300E-85D2-40F7-A07F-40C478F5519B}"/>
+    <hyperlink ref="N16" r:id="rId1" xr:uid="{3C51300E-85D2-40F7-A07F-40C478F5519B}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{9B528625-E1D3-4A00-8C3F-F8A6302F3D80}"/>
+    <hyperlink ref="N3" r:id="rId3" xr:uid="{72FD0191-0BEF-4122-8F27-E35B58E93977}"/>
+    <hyperlink ref="N4" r:id="rId4" xr:uid="{6ED45E4E-C287-4E07-B7F2-7004829683E6}"/>
+    <hyperlink ref="N5" r:id="rId5" xr:uid="{D88AEC80-4AD8-4785-81D7-C4B9D073E90C}"/>
+    <hyperlink ref="N6" r:id="rId6" xr:uid="{31E5EA3A-927A-4611-8902-F4137E264A60}"/>
+    <hyperlink ref="N7" r:id="rId7" xr:uid="{275923B3-D9EA-46CA-9F30-FB9FE2C3802D}"/>
+    <hyperlink ref="N8" r:id="rId8" xr:uid="{E4421F06-4829-4138-9DFE-05B62D58326B}"/>
+    <hyperlink ref="N9" r:id="rId9" xr:uid="{DB3BC50E-FAD2-4BA6-9B03-58324BFD74EA}"/>
+    <hyperlink ref="N10" r:id="rId10" xr:uid="{45489982-45E2-4E4A-A7B1-A8BE17315679}"/>
+    <hyperlink ref="N11" r:id="rId11" xr:uid="{D4FFBE38-805E-48FE-8F82-991287E62B62}"/>
+    <hyperlink ref="N12" r:id="rId12" xr:uid="{E8D1FDC2-3526-4D38-9F1D-87ABE1297838}"/>
+    <hyperlink ref="N13" r:id="rId13" xr:uid="{A74D715D-AE46-469F-9215-9E08B048BFCD}"/>
+    <hyperlink ref="N14" r:id="rId14" xr:uid="{3675F322-FA47-442D-B0C3-4C805141FE50}"/>
+    <hyperlink ref="N15" r:id="rId15" xr:uid="{F1832BE1-5B60-4830-B015-A5A452314E8C}"/>
+    <hyperlink ref="N17" r:id="rId16" xr:uid="{14F61905-BF13-4925-818D-2FB7E074FF77}"/>
+    <hyperlink ref="N18" r:id="rId17" xr:uid="{A045B208-595D-4E74-BD30-2CE4E3243D86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
